--- a/1920c/keith/Ne Results.xlsx
+++ b/1920c/keith/Ne Results.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://rosehulman-my.sharepoint.com/personal/condrak_rose-hulman_edu/Documents/Courses/CSSE 490 (COMP GEN)/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu\home\keith\Repositories\ComputationalGenetics\1920c\keith\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F1D38DD1-FC80-47CF-BB24-BE232F5AA1FA}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A9CC4FE-EBD5-4046-8E6A-53946CEADB82}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{39CA4FC3-F80A-4285-9B02-F1E8F39B55C1}"/>
   </bookViews>
@@ -405,7 +405,7 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -444,16 +444,16 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>191</v>
+        <v>99</v>
       </c>
       <c r="C3">
-        <v>2.6208600000000002E-4</v>
+        <v>34</v>
       </c>
       <c r="D3">
-        <v>226</v>
+        <v>92</v>
       </c>
       <c r="E3">
-        <v>1.99631E-4</v>
+        <v>32.6</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -461,16 +461,16 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>239</v>
+        <v>106</v>
       </c>
       <c r="C4">
-        <v>2.27314E-4</v>
+        <v>25.7</v>
       </c>
       <c r="D4">
-        <v>233</v>
+        <v>84</v>
       </c>
       <c r="E4">
-        <v>2.5188400000000002E-4</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -478,16 +478,16 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>234</v>
+        <v>72</v>
       </c>
       <c r="C5">
-        <v>2.9159999999999999E-4</v>
+        <v>24.9</v>
       </c>
       <c r="D5">
-        <v>226</v>
+        <v>97</v>
       </c>
       <c r="E5">
-        <v>2.01392E-4</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -495,16 +495,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>230</v>
+        <v>95</v>
       </c>
       <c r="C6">
-        <v>2.5848599999999999E-4</v>
+        <v>28.4</v>
       </c>
       <c r="D6">
-        <v>229</v>
+        <v>89</v>
       </c>
       <c r="E6">
-        <v>2.0801700000000001E-4</v>
+        <v>26.1</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -512,16 +512,16 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>202</v>
+        <v>72</v>
       </c>
       <c r="C7">
-        <v>2.55157E-4</v>
+        <v>15.4</v>
       </c>
       <c r="D7">
-        <v>219</v>
+        <v>91</v>
       </c>
       <c r="E7">
-        <v>2.7114499999999998E-4</v>
+        <v>27.8</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -529,16 +529,16 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>181</v>
+        <v>96</v>
       </c>
       <c r="C8">
-        <v>1.5965700000000001E-4</v>
+        <v>29.8</v>
       </c>
       <c r="D8">
-        <v>250</v>
+        <v>86</v>
       </c>
       <c r="E8">
-        <v>1.85677E-4</v>
+        <v>18.2</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -546,16 +546,16 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>218</v>
+        <v>76</v>
       </c>
       <c r="C9">
-        <v>2.5567100000000001E-4</v>
+        <v>22</v>
       </c>
       <c r="D9">
-        <v>239</v>
+        <v>90</v>
       </c>
       <c r="E9">
-        <v>2.1511100000000001E-4</v>
+        <v>18.600000000000001</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -563,16 +563,16 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>211</v>
+        <v>90</v>
       </c>
       <c r="C10">
-        <v>2.34429E-4</v>
+        <v>35.6</v>
       </c>
       <c r="D10">
-        <v>236</v>
+        <v>132</v>
       </c>
       <c r="E10">
-        <v>1.5253700000000001E-4</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -580,16 +580,16 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>210</v>
+        <v>109</v>
       </c>
       <c r="C11">
-        <v>2.06629E-4</v>
+        <v>26.4</v>
       </c>
       <c r="D11">
-        <v>263</v>
+        <v>61</v>
       </c>
       <c r="E11">
-        <v>2.89163E-4</v>
+        <v>30.7</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -597,16 +597,16 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>237</v>
+        <v>81</v>
       </c>
       <c r="C12">
-        <v>2.5938600000000001E-4</v>
+        <v>26.8</v>
       </c>
       <c r="D12">
-        <v>288</v>
+        <v>94</v>
       </c>
       <c r="E12">
-        <v>3.0240099999999999E-4</v>
+        <v>28.3</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -615,19 +615,17 @@
       </c>
       <c r="B13">
         <f>AVERAGE(B3:B12)</f>
-        <v>215.3</v>
+        <v>89.6</v>
       </c>
       <c r="C13">
         <f>AVERAGE(C3:C12)</f>
-        <v>2.4104150000000001E-4</v>
+        <v>26.9</v>
       </c>
       <c r="D13">
-        <f>AVERAGE(D3:D12)</f>
-        <v>240.9</v>
+        <v>96</v>
       </c>
       <c r="E13">
-        <f>AVERAGE(E3:E12)</f>
-        <v>2.2769579999999996E-4</v>
+        <v>31.7</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -636,19 +634,19 @@
       </c>
       <c r="B14">
         <f>_xlfn.STDEV.P(B3:B12)</f>
-        <v>18.963385773642848</v>
+        <v>12.97073629367277</v>
       </c>
       <c r="C14">
         <f>_xlfn.STDEV.P(C3:C12)</f>
-        <v>3.4774933763416431E-5</v>
+        <v>5.4655283367667318</v>
       </c>
       <c r="D14">
         <f>_xlfn.STDEV.P(D3:D12)</f>
-        <v>19.861772327765717</v>
+        <v>16.438978070427613</v>
       </c>
       <c r="E14">
         <f>_xlfn.STDEV.P(E3:E12)</f>
-        <v>4.6121107540474343E-5</v>
+        <v>5.7870631584595982</v>
       </c>
     </row>
   </sheetData>
@@ -657,10 +655,28 @@
     <mergeCell ref="D1:E1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="D14:E14" formulaRange="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100B63AC3973EEA8443BA01AA78F404F3CD" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="58c4b3fb54a3b8cf53d2132cf2825f87">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="18783727-4a3e-4181-9054-214d8cc6a1eb" xmlns:ns4="2d7938bf-f0c5-4af7-9872-e647b1aacd5b" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ec682ee23d6d39b6637f2f57e213d9cf" ns3:_="" ns4:_="">
     <xsd:import namespace="18783727-4a3e-4181-9054-214d8cc6a1eb"/>
@@ -877,22 +893,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4BB06555-3A16-495C-BC24-22FD0CF90F75}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="18783727-4a3e-4181-9054-214d8cc6a1eb"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="2d7938bf-f0c5-4af7-9872-e647b1aacd5b"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{17DB9521-5224-4A09-B365-F36D68DCB65C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EA3D34AE-4181-4755-B4AB-2A2CF6BE2340}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -909,29 +935,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{17DB9521-5224-4A09-B365-F36D68DCB65C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4BB06555-3A16-495C-BC24-22FD0CF90F75}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="18783727-4a3e-4181-9054-214d8cc6a1eb"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="2d7938bf-f0c5-4af7-9872-e647b1aacd5b"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>